--- a/biology/Botanique/Dioscoreales/Dioscoreales.xlsx
+++ b/biology/Botanique/Dioscoreales/Dioscoreales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'ordre des Dioscoreales regroupe des plantes monocotylédones. Réactualisé par la classification phylogénétique, il regroupe des plantes précédemment placées dans l’ordre des Liliales.
-En classification phylogénétique APG II (2003)[2] et en classification phylogénétique APG III (2009)[3] il comprend :
+En classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009) il comprend :
 ordre Dioscoreales
 famille des Burmanniaceae (inclus la famille des Thismiaceae)
 famille des Dioscoreaceae (inclus les familles des Taccaceae et des Trichopodaceae)
 famille des Nartheciaceae
-En classification phylogénétique APG (1998)[4] il comprend :
+En classification phylogénétique APG (1998) il comprend :
 ordre Dioscoreales
 famille des Burmanniaceae
 famille des Dioscoreaceae
@@ -522,19 +534,21 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon la classification phylogénétique APG III (2009)[3] et Catalogue of Life                                   (29 décembre 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon la classification phylogénétique APG III (2009) et Catalogue of Life                                   (29 décembre 2017) :
 famille des Burmanniaceae
 famille des Dioscoreaceae
 famille des Nartheciaceae
-Selon BioLib                    (29 décembre 2017)[6], ITIS      (29 décembre 2017)[7] et NCBI  (29 décembre 2017)[8] :
+Selon BioLib                    (29 décembre 2017), ITIS      (29 décembre 2017) et NCBI  (29 décembre 2017) :
 famille des Burmanniaceae Blume, 1827
 famille des Dioscoreaceae R.Br., 1810
 famille des Nartheciaceae Fr. ex Bjurzon, 1846
 famille des Taccaceae Dumort., 1829
 famille des Thismiaceae J.Agardh, 1858
-Selon Paleobiology Database                   (29 décembre 2017)[9] :
+Selon Paleobiology Database                   (29 décembre 2017) :
 famille des Dioscoreaceae
 famille des Smilacaceae</t>
         </is>
